--- a/Desenho do pinball.xlsx
+++ b/Desenho do pinball.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\crow1\Documents\GitHub\GA-Fisica\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F0E42D5-B1EE-4CA1-9785-AAC41668B41A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2550ECBA-902D-4B87-888F-6DD300B41520}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D979F76C-F56B-4D73-ABE6-09D065A92090}"/>
   </bookViews>
@@ -1817,23 +1817,122 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>467591</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>364796</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>34637</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>17319</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>363682</xdr:colOff>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>51955</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Forma Livre: Forma 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E496C532-A819-4D4F-8C2C-3EC4098F2527}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12418251" y="2718955"/>
+          <a:ext cx="1505567" cy="2701636"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst>
+            <a:gd name="connsiteX0" fmla="*/ 120113 w 1505567"/>
+            <a:gd name="connsiteY0" fmla="*/ 0 h 2701636"/>
+            <a:gd name="connsiteX1" fmla="*/ 137431 w 1505567"/>
+            <a:gd name="connsiteY1" fmla="*/ 2147454 h 2701636"/>
+            <a:gd name="connsiteX2" fmla="*/ 1505567 w 1505567"/>
+            <a:gd name="connsiteY2" fmla="*/ 2701636 h 2701636"/>
+          </a:gdLst>
+          <a:ahLst/>
+          <a:cxnLst>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX0" y="connsiteY0"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX1" y="connsiteY1"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX2" y="connsiteY2"/>
+            </a:cxn>
+          </a:cxnLst>
+          <a:rect l="l" t="t" r="r" b="b"/>
+          <a:pathLst>
+            <a:path w="1505567" h="2701636">
+              <a:moveTo>
+                <a:pt x="120113" y="0"/>
+              </a:moveTo>
+              <a:cubicBezTo>
+                <a:pt x="13317" y="848590"/>
+                <a:pt x="-93478" y="1697181"/>
+                <a:pt x="137431" y="2147454"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="368340" y="2597727"/>
+                <a:pt x="1297749" y="2661227"/>
+                <a:pt x="1505567" y="2701636"/>
+              </a:cubicBezTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="pt-BR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>467591</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>432954</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>86591</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="90" name="Conector reto 89">
+        <xdr:cNvPr id="6" name="Conector reto 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B2A6B95-5561-4768-BBE6-28935CEA515E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD2E758A-E5C1-496C-BDE4-168F83645CC6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1841,8 +1940,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1974273" y="15569045"/>
-          <a:ext cx="2563091" cy="4883728"/>
+          <a:off x="13525500" y="5264727"/>
+          <a:ext cx="34636" cy="11464637"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1867,82 +1966,1120 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>481446</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>498763</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>17318</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>502227</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>31173</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>13855</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>17319</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>96141</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="94" name="Conector reto 93">
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="Forma Livre: Forma 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09D71367-486C-40D2-BB6E-8EC21A6BE2C4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC70CCF0-9BE5-4666-AB16-6E627D9144E8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2490355" y="15530945"/>
-          <a:ext cx="2563091" cy="4883728"/>
+          <a:off x="1524000" y="14460682"/>
+          <a:ext cx="3013364" cy="5499414"/>
         </a:xfrm>
-        <a:prstGeom prst="line">
+        <a:custGeom>
           <a:avLst/>
-        </a:prstGeom>
+          <a:gdLst>
+            <a:gd name="connsiteX0" fmla="*/ 0 w 3013364"/>
+            <a:gd name="connsiteY0" fmla="*/ 0 h 5499414"/>
+            <a:gd name="connsiteX1" fmla="*/ 1004455 w 3013364"/>
+            <a:gd name="connsiteY1" fmla="*/ 2736273 h 5499414"/>
+            <a:gd name="connsiteX2" fmla="*/ 3013364 w 3013364"/>
+            <a:gd name="connsiteY2" fmla="*/ 5489863 h 5499414"/>
+          </a:gdLst>
+          <a:ahLst/>
+          <a:cxnLst>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX0" y="connsiteY0"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX1" y="connsiteY1"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX2" y="connsiteY2"/>
+            </a:cxn>
+          </a:cxnLst>
+          <a:rect l="l" t="t" r="r" b="b"/>
+          <a:pathLst>
+            <a:path w="3013364" h="5499414">
+              <a:moveTo>
+                <a:pt x="0" y="0"/>
+              </a:moveTo>
+              <a:cubicBezTo>
+                <a:pt x="251114" y="910648"/>
+                <a:pt x="502228" y="1821296"/>
+                <a:pt x="1004455" y="2736273"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="1506682" y="3651250"/>
+                <a:pt x="2912341" y="5654386"/>
+                <a:pt x="3013364" y="5489863"/>
+              </a:cubicBezTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
         </a:lnRef>
-        <a:fillRef idx="0">
+        <a:fillRef idx="1">
           <a:schemeClr val="accent1"/>
         </a:fillRef>
         <a:effectRef idx="0">
           <a:schemeClr val="accent1"/>
         </a:effectRef>
         <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
+          <a:schemeClr val="lt1"/>
         </a:fontRef>
       </xdr:style>
-    </xdr:cxnSp>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="pt-BR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>467590</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>34637</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>34635</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>51954</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="Forma Livre: Forma 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E19E16C5-CF33-42A4-95BB-0AE5D5746739}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10009908" y="14529955"/>
+          <a:ext cx="2580409" cy="5385954"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst>
+            <a:gd name="connsiteX0" fmla="*/ 2476500 w 2476500"/>
+            <a:gd name="connsiteY0" fmla="*/ 0 h 5420591"/>
+            <a:gd name="connsiteX1" fmla="*/ 1558636 w 2476500"/>
+            <a:gd name="connsiteY1" fmla="*/ 3740727 h 5420591"/>
+            <a:gd name="connsiteX2" fmla="*/ 0 w 2476500"/>
+            <a:gd name="connsiteY2" fmla="*/ 5420591 h 5420591"/>
+          </a:gdLst>
+          <a:ahLst/>
+          <a:cxnLst>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX0" y="connsiteY0"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX1" y="connsiteY1"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX2" y="connsiteY2"/>
+            </a:cxn>
+          </a:cxnLst>
+          <a:rect l="l" t="t" r="r" b="b"/>
+          <a:pathLst>
+            <a:path w="2476500" h="5420591">
+              <a:moveTo>
+                <a:pt x="2476500" y="0"/>
+              </a:moveTo>
+              <a:cubicBezTo>
+                <a:pt x="2223943" y="1418647"/>
+                <a:pt x="1971386" y="2837295"/>
+                <a:pt x="1558636" y="3740727"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="1145886" y="4644159"/>
+                <a:pt x="323273" y="5227205"/>
+                <a:pt x="0" y="5420591"/>
+              </a:cubicBezTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="pt-BR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
+      <xdr:colOff>105448</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>240948</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>13026</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>17400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="Forma Livre: Forma 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A7F98FD-7E3D-40E3-962A-DDB5C0F946C5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10652221" y="5609584"/>
+          <a:ext cx="2418714" cy="8366271"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst>
+            <a:gd name="connsiteX0" fmla="*/ 344824 w 2418714"/>
+            <a:gd name="connsiteY0" fmla="*/ 278598 h 8366271"/>
+            <a:gd name="connsiteX1" fmla="*/ 1920779 w 2418714"/>
+            <a:gd name="connsiteY1" fmla="*/ 3586371 h 8366271"/>
+            <a:gd name="connsiteX2" fmla="*/ 1868824 w 2418714"/>
+            <a:gd name="connsiteY2" fmla="*/ 6132143 h 8366271"/>
+            <a:gd name="connsiteX3" fmla="*/ 881688 w 2418714"/>
+            <a:gd name="connsiteY3" fmla="*/ 7309780 h 8366271"/>
+            <a:gd name="connsiteX4" fmla="*/ 15779 w 2418714"/>
+            <a:gd name="connsiteY4" fmla="*/ 7863961 h 8366271"/>
+            <a:gd name="connsiteX5" fmla="*/ 362143 w 2418714"/>
+            <a:gd name="connsiteY5" fmla="*/ 8366189 h 8366271"/>
+            <a:gd name="connsiteX6" fmla="*/ 864370 w 2418714"/>
+            <a:gd name="connsiteY6" fmla="*/ 7898598 h 8366271"/>
+            <a:gd name="connsiteX7" fmla="*/ 1401234 w 2418714"/>
+            <a:gd name="connsiteY7" fmla="*/ 7309780 h 8366271"/>
+            <a:gd name="connsiteX8" fmla="*/ 1938097 w 2418714"/>
+            <a:gd name="connsiteY8" fmla="*/ 6703643 h 8366271"/>
+            <a:gd name="connsiteX9" fmla="*/ 2371052 w 2418714"/>
+            <a:gd name="connsiteY9" fmla="*/ 6201416 h 8366271"/>
+            <a:gd name="connsiteX10" fmla="*/ 2405688 w 2418714"/>
+            <a:gd name="connsiteY10" fmla="*/ 4608143 h 8366271"/>
+            <a:gd name="connsiteX11" fmla="*/ 2353734 w 2418714"/>
+            <a:gd name="connsiteY11" fmla="*/ 3465143 h 8366271"/>
+            <a:gd name="connsiteX12" fmla="*/ 1903461 w 2418714"/>
+            <a:gd name="connsiteY12" fmla="*/ 2460689 h 8366271"/>
+            <a:gd name="connsiteX13" fmla="*/ 1401234 w 2418714"/>
+            <a:gd name="connsiteY13" fmla="*/ 1473552 h 8366271"/>
+            <a:gd name="connsiteX14" fmla="*/ 916324 w 2418714"/>
+            <a:gd name="connsiteY14" fmla="*/ 832780 h 8366271"/>
+            <a:gd name="connsiteX15" fmla="*/ 569961 w 2418714"/>
+            <a:gd name="connsiteY15" fmla="*/ 243961 h 8366271"/>
+            <a:gd name="connsiteX16" fmla="*/ 344824 w 2418714"/>
+            <a:gd name="connsiteY16" fmla="*/ 278598 h 8366271"/>
+          </a:gdLst>
+          <a:ahLst/>
+          <a:cxnLst>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX0" y="connsiteY0"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX1" y="connsiteY1"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX2" y="connsiteY2"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX3" y="connsiteY3"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX4" y="connsiteY4"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX5" y="connsiteY5"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX6" y="connsiteY6"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX7" y="connsiteY7"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX8" y="connsiteY8"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX9" y="connsiteY9"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX10" y="connsiteY10"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX11" y="connsiteY11"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX12" y="connsiteY12"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX13" y="connsiteY13"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX14" y="connsiteY14"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX15" y="connsiteY15"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX16" y="connsiteY16"/>
+            </a:cxn>
+          </a:cxnLst>
+          <a:rect l="l" t="t" r="r" b="b"/>
+          <a:pathLst>
+            <a:path w="2418714" h="8366271">
+              <a:moveTo>
+                <a:pt x="344824" y="278598"/>
+              </a:moveTo>
+              <a:cubicBezTo>
+                <a:pt x="569960" y="835666"/>
+                <a:pt x="1666779" y="2610780"/>
+                <a:pt x="1920779" y="3586371"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="2174779" y="4561962"/>
+                <a:pt x="2042006" y="5511575"/>
+                <a:pt x="1868824" y="6132143"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="1695642" y="6752711"/>
+                <a:pt x="1190529" y="7021144"/>
+                <a:pt x="881688" y="7309780"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="572847" y="7598416"/>
+                <a:pt x="102370" y="7687893"/>
+                <a:pt x="15779" y="7863961"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="-70812" y="8040029"/>
+                <a:pt x="220711" y="8360416"/>
+                <a:pt x="362143" y="8366189"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="503575" y="8371962"/>
+                <a:pt x="691188" y="8074666"/>
+                <a:pt x="864370" y="7898598"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="1037552" y="7722530"/>
+                <a:pt x="1222280" y="7508939"/>
+                <a:pt x="1401234" y="7309780"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="1580188" y="7110621"/>
+                <a:pt x="1776461" y="6888370"/>
+                <a:pt x="1938097" y="6703643"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="2099733" y="6518916"/>
+                <a:pt x="2293120" y="6550666"/>
+                <a:pt x="2371052" y="6201416"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="2448984" y="5852166"/>
+                <a:pt x="2408574" y="5064189"/>
+                <a:pt x="2405688" y="4608143"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="2402802" y="4152098"/>
+                <a:pt x="2437439" y="3823052"/>
+                <a:pt x="2353734" y="3465143"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="2270030" y="3107234"/>
+                <a:pt x="2062211" y="2792621"/>
+                <a:pt x="1903461" y="2460689"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="1744711" y="2128757"/>
+                <a:pt x="1565757" y="1744870"/>
+                <a:pt x="1401234" y="1473552"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="1236711" y="1202234"/>
+                <a:pt x="1054869" y="1037712"/>
+                <a:pt x="916324" y="832780"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="777779" y="627848"/>
+                <a:pt x="665211" y="330552"/>
+                <a:pt x="569961" y="243961"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="474711" y="157370"/>
+                <a:pt x="119688" y="-278470"/>
+                <a:pt x="344824" y="278598"/>
+              </a:cubicBezTo>
+              <a:close/>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="pt-BR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>398319</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>103908</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>484909</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="Elipse 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B04DC9B6-EA49-4CA5-AA02-8FA8DC9F8CC9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5403273" y="7377546"/>
+          <a:ext cx="1229590" cy="1160318"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="pt-BR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>412173</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>446809</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>135081</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>533400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="51" name="Elipse 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70D3CD68-4F73-497B-9B29-57AD891909E8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8447809" y="6889173"/>
+          <a:ext cx="1229590" cy="1160318"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="pt-BR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>426027</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>477982</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>148936</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>27709</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="53" name="Elipse 52">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{96DC9EEE-D000-4DB6-8DB7-FBA5E60B033E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6954982" y="9604664"/>
+          <a:ext cx="1229590" cy="1160318"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="pt-BR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>484909</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>467591</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>34636</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="Retângulo 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{415EA5CD-726E-4D32-8C1C-11CCCAEFF667}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3498273" y="3688773"/>
+          <a:ext cx="2060863" cy="1679863"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="pt-BR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>516082</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>31173</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>48491</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="54" name="Retângulo 53">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC8E1018-FE30-4E38-8EBB-DF94DA7BA0E7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10546773" y="2663537"/>
+          <a:ext cx="533400" cy="1679863"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="pt-BR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>481447</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>495300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>10392</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>27709</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="56" name="Retângulo 55">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F98B93C9-BECF-48CB-9B25-1D3934EAD660}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8517083" y="2105891"/>
+          <a:ext cx="533400" cy="1679863"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="pt-BR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>426028</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>24246</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>93518</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="57" name="Retângulo 56">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06C30FB5-B90A-4513-B9CD-F38E3DE3B216}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6452755" y="2708564"/>
+          <a:ext cx="533400" cy="1679863"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="pt-BR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>51954</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>467591</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>502227</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="Triângulo isósceles 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C9C13F2-932B-4BEF-9E36-BC6F97F4089F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7083136" y="15569045"/>
+          <a:ext cx="1922319" cy="3186546"/>
+        </a:xfrm>
+        <a:prstGeom prst="triangle">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="pt-BR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>290945</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>516081</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>155863</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>467590</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="58" name="Triângulo isósceles 57">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2AD92ED7-6ED7-4174-BCDA-21FE1F22F614}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="5313218" y="12327081"/>
+          <a:ext cx="1371600" cy="2098964"/>
+        </a:xfrm>
+        <a:prstGeom prst="triangle">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="pt-BR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>17318</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>519545</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>34636</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>34636</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="60" name="Forma Livre: Forma 59">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E3F1544-4019-4505-805C-871DB82B08FD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9559636" y="14478000"/>
+          <a:ext cx="2528455" cy="4883727"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst>
+            <a:gd name="connsiteX0" fmla="*/ 2476500 w 2476500"/>
+            <a:gd name="connsiteY0" fmla="*/ 0 h 5420591"/>
+            <a:gd name="connsiteX1" fmla="*/ 1558636 w 2476500"/>
+            <a:gd name="connsiteY1" fmla="*/ 3740727 h 5420591"/>
+            <a:gd name="connsiteX2" fmla="*/ 0 w 2476500"/>
+            <a:gd name="connsiteY2" fmla="*/ 5420591 h 5420591"/>
+          </a:gdLst>
+          <a:ahLst/>
+          <a:cxnLst>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX0" y="connsiteY0"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX1" y="connsiteY1"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX2" y="connsiteY2"/>
+            </a:cxn>
+          </a:cxnLst>
+          <a:rect l="l" t="t" r="r" b="b"/>
+          <a:pathLst>
+            <a:path w="2476500" h="5420591">
+              <a:moveTo>
+                <a:pt x="2476500" y="0"/>
+              </a:moveTo>
+              <a:cubicBezTo>
+                <a:pt x="2223943" y="1418647"/>
+                <a:pt x="1971386" y="2837295"/>
+                <a:pt x="1558636" y="3740727"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="1145886" y="4644159"/>
+                <a:pt x="323273" y="5227205"/>
+                <a:pt x="0" y="5420591"/>
+              </a:cubicBezTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="pt-BR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>34636</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>467590</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>17318</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>484909</xdr:rowOff>
+      <xdr:colOff>34635</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>34637</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="95" name="Conector reto 94">
+        <xdr:cNvPr id="25" name="Conector reto 24">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29257093-4C66-4838-B32C-2A92CC8A1AAD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{961E1818-893C-4320-87C0-2C3A2EE9B19D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="11" idx="0"/>
+        </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="10546774" y="15569045"/>
-          <a:ext cx="2026226" cy="4779819"/>
+        <a:xfrm>
+          <a:off x="12088091" y="14426045"/>
+          <a:ext cx="502226" cy="103910"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1968,31 +3105,33 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>498765</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>464126</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>17318</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>13854</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>450273</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>412172</xdr:rowOff>
+      <xdr:rowOff>34636</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="98" name="Conector reto 97">
+        <xdr:cNvPr id="27" name="Conector reto 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{607A879D-530E-410A-896E-2F8D28EF4454}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{997EBA6F-5A2B-4259-9A9B-B7C30FDBDE5E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="11" idx="2"/>
+        </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="10041083" y="15496308"/>
-          <a:ext cx="2026226" cy="4779819"/>
+        <a:xfrm>
+          <a:off x="9542318" y="19344409"/>
+          <a:ext cx="450273" cy="554182"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -2018,31 +3157,133 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>484909</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>519545</xdr:rowOff>
+      <xdr:colOff>481445</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>429491</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>519545</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>481446</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>23405</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="66" name="Forma Livre: Forma 65">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CAF90E6B-A4FA-49D8-810E-6CEE8E6C3AD8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1988127" y="14387946"/>
+          <a:ext cx="3013364" cy="5499414"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst>
+            <a:gd name="connsiteX0" fmla="*/ 0 w 3013364"/>
+            <a:gd name="connsiteY0" fmla="*/ 0 h 5499414"/>
+            <a:gd name="connsiteX1" fmla="*/ 1004455 w 3013364"/>
+            <a:gd name="connsiteY1" fmla="*/ 2736273 h 5499414"/>
+            <a:gd name="connsiteX2" fmla="*/ 3013364 w 3013364"/>
+            <a:gd name="connsiteY2" fmla="*/ 5489863 h 5499414"/>
+          </a:gdLst>
+          <a:ahLst/>
+          <a:cxnLst>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX0" y="connsiteY0"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX1" y="connsiteY1"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX2" y="connsiteY2"/>
+            </a:cxn>
+          </a:cxnLst>
+          <a:rect l="l" t="t" r="r" b="b"/>
+          <a:pathLst>
+            <a:path w="3013364" h="5499414">
+              <a:moveTo>
+                <a:pt x="0" y="0"/>
+              </a:moveTo>
+              <a:cubicBezTo>
+                <a:pt x="251114" y="910648"/>
+                <a:pt x="502228" y="1821296"/>
+                <a:pt x="1004455" y="2736273"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="1506682" y="3651250"/>
+                <a:pt x="2912341" y="5654386"/>
+                <a:pt x="3013364" y="5489863"/>
+              </a:cubicBezTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="pt-BR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>17318</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>429491</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>481445</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>502227</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="100" name="Conector reto 99">
+        <xdr:cNvPr id="31" name="Conector reto 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{471F7220-C235-469C-8B1E-51D8D772156C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A0DA941-E055-418C-9DE6-E331BABBA1F1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="66" idx="0"/>
+          <a:endCxn id="10" idx="0"/>
+        </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1991591" y="15551727"/>
-          <a:ext cx="519545" cy="0"/>
+        <a:xfrm flipH="1">
+          <a:off x="1524000" y="14387946"/>
+          <a:ext cx="464127" cy="72736"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -2068,31 +3309,34 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>34637</xdr:colOff>
+      <xdr:colOff>17319</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>502227</xdr:rowOff>
+      <xdr:rowOff>13854</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>17318</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>17318</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>481446</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>86590</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="102" name="Conector reto 101">
+        <xdr:cNvPr id="33" name="Conector reto 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F39C76B7-8B55-4CC4-8ECC-C41F6431D13C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF8D9030-D927-49C6-A6FA-C4337F92A7C6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="66" idx="2"/>
+          <a:endCxn id="10" idx="2"/>
+        </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="4554682" y="20366182"/>
-          <a:ext cx="484909" cy="51954"/>
+          <a:off x="4537364" y="19877809"/>
+          <a:ext cx="464127" cy="72736"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -2417,8 +3661,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E32486F-FC48-41A1-BD3A-FF5BB39EBA9B}">
   <dimension ref="A1:AE42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+    <sheetView tabSelected="1" zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
+      <selection activeCell="K32" sqref="K32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.42578125" defaultRowHeight="42.6" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/Desenho do pinball.xlsx
+++ b/Desenho do pinball.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\crow1\Documents\GitHub\GA-Fisica\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2550ECBA-902D-4B87-888F-6DD300B41520}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B3E0FDA-94F7-4FD7-9792-D9EBD1AF0DFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D979F76C-F56B-4D73-ABE6-09D065A92090}"/>
   </bookViews>
@@ -3661,8 +3661,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E32486F-FC48-41A1-BD3A-FF5BB39EBA9B}">
   <dimension ref="A1:AE42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
-      <selection activeCell="K32" sqref="K32"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AA34" sqref="AA34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.42578125" defaultRowHeight="42.6" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/Desenho do pinball.xlsx
+++ b/Desenho do pinball.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\crow1\Documents\GitHub\GA-Fisica\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B3E0FDA-94F7-4FD7-9792-D9EBD1AF0DFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{720AA14B-0F4C-4378-A7AE-9261CE452319}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D979F76C-F56B-4D73-ABE6-09D065A92090}"/>
   </bookViews>
@@ -1358,465 +1358,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>277091</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>17318</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>69273</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="69" name="Conector reto 68">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED87C428-1DE9-4533-82B3-82C65DEEDAEE}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="1783773" y="5922818"/>
-          <a:ext cx="796636" cy="1056409"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>519545</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>346363</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>17319</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="71" name="Conector reto 70">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32EBFDA5-C38E-4489-8D33-3494868DC5EE}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="1506682" y="6961909"/>
-          <a:ext cx="346363" cy="2718955"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>34636</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="73" name="Conector reto 72">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A23AC2FD-3240-400C-8923-C370BDC320F0}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1506682" y="9663545"/>
-          <a:ext cx="34636" cy="1610591"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>34636</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>51955</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>432954</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="75" name="Conector reto 74">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A785ADA-1F35-47DA-9184-F3ACFAF7D466}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1541318" y="11326091"/>
-          <a:ext cx="398318" cy="2095500"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>450273</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>34637</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>17319</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>51954</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="77" name="Conector reto 76">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15AEB174-F900-4165-AF13-057CFB613FCB}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="1956955" y="12919364"/>
-          <a:ext cx="571500" cy="554181"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>484910</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>17320</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>17318</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="79" name="Conector reto 78">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B92594BE-11B8-4908-B3C3-FD38B31713FF}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="1991592" y="11291456"/>
-          <a:ext cx="519544" cy="1610589"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>429264</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>51955</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>467591</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>17319</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="82" name="Forma Livre: Forma 81">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F839A31C-C65D-4C64-8F56-B7E6B17A1C8B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1935946" y="5957455"/>
-          <a:ext cx="1042781" cy="5334000"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst>
-            <a:gd name="connsiteX0" fmla="*/ 38327 w 1042781"/>
-            <a:gd name="connsiteY0" fmla="*/ 5334000 h 5334000"/>
-            <a:gd name="connsiteX1" fmla="*/ 38327 w 1042781"/>
-            <a:gd name="connsiteY1" fmla="*/ 3706090 h 5334000"/>
-            <a:gd name="connsiteX2" fmla="*/ 436645 w 1042781"/>
-            <a:gd name="connsiteY2" fmla="*/ 1004454 h 5334000"/>
-            <a:gd name="connsiteX3" fmla="*/ 1042781 w 1042781"/>
-            <a:gd name="connsiteY3" fmla="*/ 0 h 5334000"/>
-          </a:gdLst>
-          <a:ahLst/>
-          <a:cxnLst>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX0" y="connsiteY0"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX1" y="connsiteY1"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX2" y="connsiteY2"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX3" y="connsiteY3"/>
-            </a:cxn>
-          </a:cxnLst>
-          <a:rect l="l" t="t" r="r" b="b"/>
-          <a:pathLst>
-            <a:path w="1042781" h="5334000">
-              <a:moveTo>
-                <a:pt x="38327" y="5334000"/>
-              </a:moveTo>
-              <a:cubicBezTo>
-                <a:pt x="5134" y="4880840"/>
-                <a:pt x="-28059" y="4427681"/>
-                <a:pt x="38327" y="3706090"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="104713" y="2984499"/>
-                <a:pt x="269236" y="1622136"/>
-                <a:pt x="436645" y="1004454"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="604054" y="386772"/>
-                <a:pt x="733940" y="181841"/>
-                <a:pt x="1042781" y="0"/>
-              </a:cubicBezTo>
-            </a:path>
-          </a:pathLst>
-        </a:custGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="pt-BR" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>69273</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>34636</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>17318</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>51955</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="84" name="Conector reto 83">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5BD578AB-F252-4B40-9AAF-4E43E3A9E93F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="2580409" y="5940136"/>
-          <a:ext cx="450273" cy="17319"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>24</xdr:col>
       <xdr:colOff>364796</xdr:colOff>
       <xdr:row>5</xdr:row>
@@ -1962,444 +1503,6 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>17318</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>502227</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>17319</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>96141</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="Forma Livre: Forma 9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC70CCF0-9BE5-4666-AB16-6E627D9144E8}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1524000" y="14460682"/>
-          <a:ext cx="3013364" cy="5499414"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst>
-            <a:gd name="connsiteX0" fmla="*/ 0 w 3013364"/>
-            <a:gd name="connsiteY0" fmla="*/ 0 h 5499414"/>
-            <a:gd name="connsiteX1" fmla="*/ 1004455 w 3013364"/>
-            <a:gd name="connsiteY1" fmla="*/ 2736273 h 5499414"/>
-            <a:gd name="connsiteX2" fmla="*/ 3013364 w 3013364"/>
-            <a:gd name="connsiteY2" fmla="*/ 5489863 h 5499414"/>
-          </a:gdLst>
-          <a:ahLst/>
-          <a:cxnLst>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX0" y="connsiteY0"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX1" y="connsiteY1"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX2" y="connsiteY2"/>
-            </a:cxn>
-          </a:cxnLst>
-          <a:rect l="l" t="t" r="r" b="b"/>
-          <a:pathLst>
-            <a:path w="3013364" h="5499414">
-              <a:moveTo>
-                <a:pt x="0" y="0"/>
-              </a:moveTo>
-              <a:cubicBezTo>
-                <a:pt x="251114" y="910648"/>
-                <a:pt x="502228" y="1821296"/>
-                <a:pt x="1004455" y="2736273"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="1506682" y="3651250"/>
-                <a:pt x="2912341" y="5654386"/>
-                <a:pt x="3013364" y="5489863"/>
-              </a:cubicBezTo>
-            </a:path>
-          </a:pathLst>
-        </a:custGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="pt-BR" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>467590</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>34637</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>34635</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>51954</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="Forma Livre: Forma 10">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E19E16C5-CF33-42A4-95BB-0AE5D5746739}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10009908" y="14529955"/>
-          <a:ext cx="2580409" cy="5385954"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst>
-            <a:gd name="connsiteX0" fmla="*/ 2476500 w 2476500"/>
-            <a:gd name="connsiteY0" fmla="*/ 0 h 5420591"/>
-            <a:gd name="connsiteX1" fmla="*/ 1558636 w 2476500"/>
-            <a:gd name="connsiteY1" fmla="*/ 3740727 h 5420591"/>
-            <a:gd name="connsiteX2" fmla="*/ 0 w 2476500"/>
-            <a:gd name="connsiteY2" fmla="*/ 5420591 h 5420591"/>
-          </a:gdLst>
-          <a:ahLst/>
-          <a:cxnLst>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX0" y="connsiteY0"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX1" y="connsiteY1"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX2" y="connsiteY2"/>
-            </a:cxn>
-          </a:cxnLst>
-          <a:rect l="l" t="t" r="r" b="b"/>
-          <a:pathLst>
-            <a:path w="2476500" h="5420591">
-              <a:moveTo>
-                <a:pt x="2476500" y="0"/>
-              </a:moveTo>
-              <a:cubicBezTo>
-                <a:pt x="2223943" y="1418647"/>
-                <a:pt x="1971386" y="2837295"/>
-                <a:pt x="1558636" y="3740727"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="1145886" y="4644159"/>
-                <a:pt x="323273" y="5227205"/>
-                <a:pt x="0" y="5420591"/>
-              </a:cubicBezTo>
-            </a:path>
-          </a:pathLst>
-        </a:custGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="pt-BR" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>105448</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>240948</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>13026</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>17400</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="Forma Livre: Forma 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A7F98FD-7E3D-40E3-962A-DDB5C0F946C5}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10652221" y="5609584"/>
-          <a:ext cx="2418714" cy="8366271"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst>
-            <a:gd name="connsiteX0" fmla="*/ 344824 w 2418714"/>
-            <a:gd name="connsiteY0" fmla="*/ 278598 h 8366271"/>
-            <a:gd name="connsiteX1" fmla="*/ 1920779 w 2418714"/>
-            <a:gd name="connsiteY1" fmla="*/ 3586371 h 8366271"/>
-            <a:gd name="connsiteX2" fmla="*/ 1868824 w 2418714"/>
-            <a:gd name="connsiteY2" fmla="*/ 6132143 h 8366271"/>
-            <a:gd name="connsiteX3" fmla="*/ 881688 w 2418714"/>
-            <a:gd name="connsiteY3" fmla="*/ 7309780 h 8366271"/>
-            <a:gd name="connsiteX4" fmla="*/ 15779 w 2418714"/>
-            <a:gd name="connsiteY4" fmla="*/ 7863961 h 8366271"/>
-            <a:gd name="connsiteX5" fmla="*/ 362143 w 2418714"/>
-            <a:gd name="connsiteY5" fmla="*/ 8366189 h 8366271"/>
-            <a:gd name="connsiteX6" fmla="*/ 864370 w 2418714"/>
-            <a:gd name="connsiteY6" fmla="*/ 7898598 h 8366271"/>
-            <a:gd name="connsiteX7" fmla="*/ 1401234 w 2418714"/>
-            <a:gd name="connsiteY7" fmla="*/ 7309780 h 8366271"/>
-            <a:gd name="connsiteX8" fmla="*/ 1938097 w 2418714"/>
-            <a:gd name="connsiteY8" fmla="*/ 6703643 h 8366271"/>
-            <a:gd name="connsiteX9" fmla="*/ 2371052 w 2418714"/>
-            <a:gd name="connsiteY9" fmla="*/ 6201416 h 8366271"/>
-            <a:gd name="connsiteX10" fmla="*/ 2405688 w 2418714"/>
-            <a:gd name="connsiteY10" fmla="*/ 4608143 h 8366271"/>
-            <a:gd name="connsiteX11" fmla="*/ 2353734 w 2418714"/>
-            <a:gd name="connsiteY11" fmla="*/ 3465143 h 8366271"/>
-            <a:gd name="connsiteX12" fmla="*/ 1903461 w 2418714"/>
-            <a:gd name="connsiteY12" fmla="*/ 2460689 h 8366271"/>
-            <a:gd name="connsiteX13" fmla="*/ 1401234 w 2418714"/>
-            <a:gd name="connsiteY13" fmla="*/ 1473552 h 8366271"/>
-            <a:gd name="connsiteX14" fmla="*/ 916324 w 2418714"/>
-            <a:gd name="connsiteY14" fmla="*/ 832780 h 8366271"/>
-            <a:gd name="connsiteX15" fmla="*/ 569961 w 2418714"/>
-            <a:gd name="connsiteY15" fmla="*/ 243961 h 8366271"/>
-            <a:gd name="connsiteX16" fmla="*/ 344824 w 2418714"/>
-            <a:gd name="connsiteY16" fmla="*/ 278598 h 8366271"/>
-          </a:gdLst>
-          <a:ahLst/>
-          <a:cxnLst>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX0" y="connsiteY0"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX1" y="connsiteY1"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX2" y="connsiteY2"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX3" y="connsiteY3"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX4" y="connsiteY4"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX5" y="connsiteY5"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX6" y="connsiteY6"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX7" y="connsiteY7"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX8" y="connsiteY8"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX9" y="connsiteY9"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX10" y="connsiteY10"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX11" y="connsiteY11"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX12" y="connsiteY12"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX13" y="connsiteY13"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX14" y="connsiteY14"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX15" y="connsiteY15"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX16" y="connsiteY16"/>
-            </a:cxn>
-          </a:cxnLst>
-          <a:rect l="l" t="t" r="r" b="b"/>
-          <a:pathLst>
-            <a:path w="2418714" h="8366271">
-              <a:moveTo>
-                <a:pt x="344824" y="278598"/>
-              </a:moveTo>
-              <a:cubicBezTo>
-                <a:pt x="569960" y="835666"/>
-                <a:pt x="1666779" y="2610780"/>
-                <a:pt x="1920779" y="3586371"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="2174779" y="4561962"/>
-                <a:pt x="2042006" y="5511575"/>
-                <a:pt x="1868824" y="6132143"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="1695642" y="6752711"/>
-                <a:pt x="1190529" y="7021144"/>
-                <a:pt x="881688" y="7309780"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="572847" y="7598416"/>
-                <a:pt x="102370" y="7687893"/>
-                <a:pt x="15779" y="7863961"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="-70812" y="8040029"/>
-                <a:pt x="220711" y="8360416"/>
-                <a:pt x="362143" y="8366189"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="503575" y="8371962"/>
-                <a:pt x="691188" y="8074666"/>
-                <a:pt x="864370" y="7898598"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="1037552" y="7722530"/>
-                <a:pt x="1222280" y="7508939"/>
-                <a:pt x="1401234" y="7309780"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="1580188" y="7110621"/>
-                <a:pt x="1776461" y="6888370"/>
-                <a:pt x="1938097" y="6703643"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="2099733" y="6518916"/>
-                <a:pt x="2293120" y="6550666"/>
-                <a:pt x="2371052" y="6201416"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="2448984" y="5852166"/>
-                <a:pt x="2408574" y="5064189"/>
-                <a:pt x="2405688" y="4608143"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="2402802" y="4152098"/>
-                <a:pt x="2437439" y="3823052"/>
-                <a:pt x="2353734" y="3465143"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="2270030" y="3107234"/>
-                <a:pt x="2062211" y="2792621"/>
-                <a:pt x="1903461" y="2460689"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="1744711" y="2128757"/>
-                <a:pt x="1565757" y="1744870"/>
-                <a:pt x="1401234" y="1473552"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="1236711" y="1202234"/>
-                <a:pt x="1054869" y="1037712"/>
-                <a:pt x="916324" y="832780"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="777779" y="627848"/>
-                <a:pt x="665211" y="330552"/>
-                <a:pt x="569961" y="243961"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="474711" y="157370"/>
-                <a:pt x="119688" y="-278470"/>
-                <a:pt x="344824" y="278598"/>
-              </a:cubicBezTo>
-              <a:close/>
-            </a:path>
-          </a:pathLst>
-        </a:custGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="pt-BR" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
@@ -2610,7 +1713,7 @@
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm>
+        <a:xfrm rot="20688500">
           <a:off x="3498273" y="3688773"/>
           <a:ext cx="2060863" cy="1679863"/>
         </a:xfrm>
@@ -2649,15 +1752,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>155864</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>516082</xdr:rowOff>
+      <xdr:rowOff>464127</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>31173</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>48491</xdr:rowOff>
+      <xdr:colOff>187037</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>533400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2671,8 +1774,8 @@
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10546773" y="2663537"/>
+        <a:xfrm rot="2386303">
+          <a:off x="10702637" y="2611582"/>
           <a:ext cx="533400" cy="1679863"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2732,7 +1835,7 @@
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm>
+        <a:xfrm rot="19748217">
           <a:off x="8517083" y="2105891"/>
           <a:ext cx="533400" cy="1679863"/>
         </a:xfrm>
@@ -2793,7 +1896,7 @@
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm>
+        <a:xfrm rot="537838">
           <a:off x="6452755" y="2708564"/>
           <a:ext cx="533400" cy="1679863"/>
         </a:xfrm>
@@ -2831,16 +1934,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>51954</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>385328</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>467591</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>300903</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>502227</xdr:rowOff>
+      <xdr:rowOff>2164</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2854,9 +1957,9 @@
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7083136" y="15569045"/>
-          <a:ext cx="1922319" cy="3186546"/>
+        <a:xfrm rot="19365822">
+          <a:off x="7886266" y="14692312"/>
+          <a:ext cx="1915825" cy="3121602"/>
         </a:xfrm>
         <a:prstGeom prst="triangle">
           <a:avLst/>
@@ -2953,74 +2056,97 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>17318</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>519545</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>360141</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>212836</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>34636</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>34636</xdr:rowOff>
+      <xdr:colOff>166110</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>361402</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="60" name="Forma Livre: Forma 59">
+        <xdr:cNvPr id="5" name="Retângulo 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E3F1544-4019-4505-805C-871DB82B08FD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D147E4CB-6987-4114-87F0-4BF7BA4DE545}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9559636" y="14478000"/>
-          <a:ext cx="2528455" cy="4883727"/>
+        <a:xfrm rot="-20040000">
+          <a:off x="11700494" y="10970483"/>
+          <a:ext cx="299028" cy="2300095"/>
         </a:xfrm>
-        <a:custGeom>
+        <a:prstGeom prst="rect">
           <a:avLst/>
-          <a:gdLst>
-            <a:gd name="connsiteX0" fmla="*/ 2476500 w 2476500"/>
-            <a:gd name="connsiteY0" fmla="*/ 0 h 5420591"/>
-            <a:gd name="connsiteX1" fmla="*/ 1558636 w 2476500"/>
-            <a:gd name="connsiteY1" fmla="*/ 3740727 h 5420591"/>
-            <a:gd name="connsiteX2" fmla="*/ 0 w 2476500"/>
-            <a:gd name="connsiteY2" fmla="*/ 5420591 h 5420591"/>
-          </a:gdLst>
-          <a:ahLst/>
-          <a:cxnLst>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX0" y="connsiteY0"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX1" y="connsiteY1"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX2" y="connsiteY2"/>
-            </a:cxn>
-          </a:cxnLst>
-          <a:rect l="l" t="t" r="r" b="b"/>
-          <a:pathLst>
-            <a:path w="2476500" h="5420591">
-              <a:moveTo>
-                <a:pt x="2476500" y="0"/>
-              </a:moveTo>
-              <a:cubicBezTo>
-                <a:pt x="2223943" y="1418647"/>
-                <a:pt x="1971386" y="2837295"/>
-                <a:pt x="1558636" y="3740727"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="1145886" y="4644159"/>
-                <a:pt x="323273" y="5227205"/>
-                <a:pt x="0" y="5420591"/>
-              </a:cubicBezTo>
-            </a:path>
-          </a:pathLst>
-        </a:custGeom>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="pt-BR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>467718</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>331618</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>273687</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>480184</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="68" name="Retângulo 67">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D97C235A-3D06-42DD-9A86-F62C51AD47EC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="20408279">
+          <a:off x="11808071" y="6248324"/>
+          <a:ext cx="299028" cy="2300095"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
         <a:noFill/>
       </xdr:spPr>
       <xdr:style>
@@ -3053,126 +2179,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>34636</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>467590</xdr:rowOff>
+      <xdr:colOff>351176</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>336176</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>34635</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>34637</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="25" name="Conector reto 24">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{961E1818-893C-4320-87C0-2C3A2EE9B19D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:endCxn id="11" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12088091" y="14426045"/>
-          <a:ext cx="502226" cy="103910"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>17318</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>450273</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>34636</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="27" name="Conector reto 26">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{997EBA6F-5A2B-4259-9A9B-B7C30FDBDE5E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:endCxn id="11" idx="2"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9542318" y="19344409"/>
-          <a:ext cx="450273" cy="554182"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>481445</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>429491</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>481446</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>23405</xdr:rowOff>
+      <xdr:colOff>157145</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>381000</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="66" name="Forma Livre: Forma 65">
+        <xdr:cNvPr id="70" name="Retângulo 69">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CAF90E6B-A4FA-49D8-810E-6CEE8E6C3AD8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55F8DEC4-0170-4F8E-9040-E74B22B63BC2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3180,50 +2202,12 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1988127" y="14387946"/>
-          <a:ext cx="3013364" cy="5499414"/>
+          <a:off x="12184588" y="8404411"/>
+          <a:ext cx="299028" cy="2734236"/>
         </a:xfrm>
-        <a:custGeom>
+        <a:prstGeom prst="rect">
           <a:avLst/>
-          <a:gdLst>
-            <a:gd name="connsiteX0" fmla="*/ 0 w 3013364"/>
-            <a:gd name="connsiteY0" fmla="*/ 0 h 5499414"/>
-            <a:gd name="connsiteX1" fmla="*/ 1004455 w 3013364"/>
-            <a:gd name="connsiteY1" fmla="*/ 2736273 h 5499414"/>
-            <a:gd name="connsiteX2" fmla="*/ 3013364 w 3013364"/>
-            <a:gd name="connsiteY2" fmla="*/ 5489863 h 5499414"/>
-          </a:gdLst>
-          <a:ahLst/>
-          <a:cxnLst>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX0" y="connsiteY0"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX1" y="connsiteY1"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX2" y="connsiteY2"/>
-            </a:cxn>
-          </a:cxnLst>
-          <a:rect l="l" t="t" r="r" b="b"/>
-          <a:pathLst>
-            <a:path w="3013364" h="5499414">
-              <a:moveTo>
-                <a:pt x="0" y="0"/>
-              </a:moveTo>
-              <a:cubicBezTo>
-                <a:pt x="251114" y="910648"/>
-                <a:pt x="502228" y="1821296"/>
-                <a:pt x="1004455" y="2736273"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="1506682" y="3651250"/>
-                <a:pt x="2912341" y="5654386"/>
-                <a:pt x="3013364" y="5489863"/>
-              </a:cubicBezTo>
-            </a:path>
-          </a:pathLst>
-        </a:custGeom>
+        </a:prstGeom>
         <a:noFill/>
       </xdr:spPr>
       <xdr:style>
@@ -3255,108 +2239,475 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>17318</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>429491</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>105846</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>420028</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>481445</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>502227</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>481613</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>422367</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="31" name="Conector reto 30">
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="7" name="Agrupar 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A0DA941-E055-418C-9DE6-E331BABBA1F1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C6D3A91-631E-4444-A0B7-278BD7D87B73}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="66" idx="0"/>
-          <a:endCxn id="10" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="1524000" y="14387946"/>
-          <a:ext cx="464127" cy="72736"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm rot="5400000">
+          <a:off x="3288605" y="7905269"/>
+          <a:ext cx="539203" cy="4895812"/>
+          <a:chOff x="9831353" y="6053342"/>
+          <a:chExt cx="746701" cy="7160218"/>
         </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="72" name="Retângulo 71">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{882FF344-5C44-4464-BE19-6B40FB8E5849}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="1560000">
+            <a:off x="10220066" y="8461933"/>
+            <a:ext cx="357988" cy="4751627"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="pt-BR" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="74" name="Retângulo 73">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1EF186F4-B35E-44BD-985B-710588468F0A}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="20408279">
+            <a:off x="9831353" y="6053342"/>
+            <a:ext cx="299028" cy="2300095"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="pt-BR" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>17319</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>13854</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>214312</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>490170</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>481446</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>86590</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>221846</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>232545</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="33" name="Conector reto 32">
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="78" name="Agrupar 77">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF8D9030-D927-49C6-A6FA-C4337F92A7C6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62A4CF34-113E-4DBC-8F05-A5A8D363772D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="66" idx="2"/>
-          <a:endCxn id="10" idx="2"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="4537364" y="19877809"/>
-          <a:ext cx="464127" cy="72736"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm rot="7660814">
+          <a:off x="3074506" y="14272749"/>
+          <a:ext cx="816102" cy="6536489"/>
+          <a:chOff x="9723776" y="6053342"/>
+          <a:chExt cx="783122" cy="7022254"/>
         </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="80" name="Retângulo 79">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C584DF6F-993F-41FE-AAA8-3D8B81151F29}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="-20040000">
+            <a:off x="9723776" y="10775501"/>
+            <a:ext cx="299028" cy="2300095"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="pt-BR" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="81" name="Retângulo 80">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17F883FA-1C83-4F32-A231-80F6753BF85D}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="20408279">
+            <a:off x="9831353" y="6053342"/>
+            <a:ext cx="299028" cy="2300095"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="pt-BR" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="83" name="Retângulo 82">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C641C50B-7C6A-4755-A2AB-A5C7706654C5}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="10207870" y="8209429"/>
+            <a:ext cx="299028" cy="2734236"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="pt-BR" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>59541</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>117867</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>349603</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>147651</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="85" name="Agrupar 84">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3893080E-FCA2-4E29-865D-41BFB2148DB9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm rot="1605148">
+          <a:off x="11108541" y="14613185"/>
+          <a:ext cx="792289" cy="7009011"/>
+          <a:chOff x="9723776" y="6053342"/>
+          <a:chExt cx="783122" cy="7022254"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="86" name="Retângulo 85">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB1F0C4E-4D4F-4CF8-A529-F8392F0E675B}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="-20040000">
+            <a:off x="9723776" y="10775501"/>
+            <a:ext cx="299028" cy="2300095"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="pt-BR" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="87" name="Retângulo 86">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9CFA745-5B63-4F3D-9C11-D0679E27EF9D}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="20408279">
+            <a:off x="9831353" y="6053342"/>
+            <a:ext cx="299028" cy="2300095"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="pt-BR" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="88" name="Retângulo 87">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5D3CB3D-B311-4129-9EA5-EDEDA47ACEAC}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="10207870" y="8209429"/>
+            <a:ext cx="299028" cy="2734236"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="pt-BR" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -3661,8 +3012,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E32486F-FC48-41A1-BD3A-FF5BB39EBA9B}">
   <dimension ref="A1:AE42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AA34" sqref="AA34"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="R24" sqref="R24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.42578125" defaultRowHeight="42.6" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5869,7 +5220,7 @@
         <f>CONCATENATE((x!S18),", ",(y!S18))</f>
         <v>18, 23</v>
       </c>
-      <c r="T18" s="1" t="str">
+      <c r="T18" s="2" t="str">
         <f>CONCATENATE((x!T18),", ",(y!T18))</f>
         <v>19, 23</v>
       </c>
@@ -6925,10 +6276,6 @@
       <c r="B27" s="1" t="str">
         <f>CONCATENATE((x!B27),", ",(y!B27))</f>
         <v>1, 14</v>
-      </c>
-      <c r="C27" s="1" t="str">
-        <f>CONCATENATE((x!C27),", ",(y!C27))</f>
-        <v>2, 14</v>
       </c>
       <c r="D27" s="1" t="str">
         <f>CONCATENATE((x!D27),", ",(y!D27))</f>
